--- a/CPE Electives (1 - 3)/04. Live Lectures Notebook/49. Linear Regression/Score_Attitude.xlsx
+++ b/CPE Electives (1 - 3)/04. Live Lectures Notebook/49. Linear Regression/Score_Attitude.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
